--- a/excel/financial_sample_same_schema_less_data.xlsx
+++ b/excel/financial_sample_same_schema_less_data.xlsx
@@ -875,7 +875,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="7"/>
@@ -888,7 +888,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="7"/>
@@ -901,7 +901,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="7"/>
@@ -914,7 +914,7 @@
       <c r="J25" s="5"/>
       <c r="K25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="7"/>
@@ -927,7 +927,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="7"/>
@@ -940,7 +940,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="7"/>
@@ -953,7 +953,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="7"/>
